--- a/biology/Médecine/Pierre_Tiara/Pierre_Tiara.xlsx
+++ b/biology/Médecine/Pierre_Tiara/Pierre_Tiara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Tiara (Petreïus ou Peter), né le 15 juillet 1514 à Workum en Frise, et mort le 9 février 1586 à Franeker, est un humaniste et médecin hollandais.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est né le 15 juillet 1514 à Workum en Frise. Il y commença ses « humanités », puis se rendit à Harlem pour y étudier la logique, les mathématiques et la morale. Helléniste et latiniste, il fabrique ses propres instruments de musique, d'astronomie, de géométrie et portait de l'intérêt à la peinture. Il étudie la médecine à Louvain puis visite l'Allemagne, la France et l'Italie. Docteur-médecin dans ce dernier pays, il s'établit au bout de ses voyages à Louvain vers 1553. Il y enseigna le grec. En 1560 une académie à Douai est créée. Il est appelé à cette chaire. Son épouse, qui était Frisonne, n'aimait pas cette ville. Retournant alors dans sa patrie, il a été bourgmestre à Franeker. En 1575, des savants était recherchés pour la nouvelle université de Leyde. Il y enseigna le grec et en a été le premier « recteur magnifique ». Franeker a fondé une académie en 1585. Pierre Tiara y était l'un des sept premiers professeurs, toujours pour enseigner la langue grecque. Il meurt dans cette ville le 9 février 1586.
 </t>
@@ -542,7 +556,9 @@
           <t>Traductions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il est l'auteur de plusieurs traductions parmi lesquelles :
 une traduction latine du Sophiste de Platon
